--- a/词汇/数据库导入/012. -flu-=-flux-流.xlsx
+++ b/词汇/数据库导入/012. -flu-=-flux-流.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171">
   <si>
     <t>Word</t>
   </si>
@@ -31,6 +31,2251 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>flu [fluː]</t>
+  </si>
+  <si>
+    <t>flu</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. (=influenza) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流行性感冒【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5732</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B2M1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【词根直接表单词】</t>
+  </si>
+  <si>
+    <t>influenza [,influ'enzə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流行性感冒【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12951</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【influence有影响的--流行开来--传播--传染+-enza名词后缀
+-ence其中c对应 s/ k/故在音变中会有c-z/s】</t>
+  </si>
+  <si>
+    <t>fluent ['flu(:)ənt]</t>
+  </si>
+  <si>
+    <t>fluent</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流动的，流畅的，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语言</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流利的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-flu-流--水流--流动--流畅--流利+ent形容词后缀】</t>
+  </si>
+  <si>
+    <t>fluently [ˈfluːəntlɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流利地；通畅地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>23356</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【fluent+ly副词后缀】</t>
+  </si>
+  <si>
+    <t>fluency ['fluːənsɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流利；流畅【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13615</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B1M1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-flu-+ency名词后缀】</t>
+  </si>
+  <si>
+    <t>influent ['ɪnflʊənt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流入的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支流【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>37984</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【in向内+flu流--向内流--流入+ent名词或形容词后</t>
+  </si>
+  <si>
+    <t>fluence ['fluəns]</t>
+  </si>
+  <si>
+    <t>fluence</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（神秘的）影响；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>积分通量【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>58134</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-flu-流--流量--波动--影响+ence名词后缀】</t>
+  </si>
+  <si>
+    <t>influencing ['ɪnflʊənsɪŋ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影响的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50234</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【influence+ing形容词后缀】</t>
+  </si>
+  <si>
+    <t>influence ['influəns]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影响，感动，势力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">v. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>感化，影响，对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有作用，左右【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1396</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1802</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B2M3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【in-向内+flu-流--向内流--流进去--产生作用，产生影响+ence名词后缀，偶尔表动词】</t>
+  </si>
+  <si>
+    <t>influenced['influənst]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>受影响的</t>
+    </r>
+  </si>
+  <si>
+    <t>【influence+ed形容词后缀，又可表过去分词，即被动含义】</t>
+  </si>
+  <si>
+    <t>uninfluenced [ʌn'ɪnflʊənst]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未受影响的；自主行动的；公正的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>48417</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【un-否定+influenced】</t>
+  </si>
+  <si>
+    <t>influential [,ɪnflʊ'enʃ(ə)l]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有影响的，施以影响的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4327</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B3M5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【in向内+flu流+ent+i+al形容词后缀】</t>
+  </si>
+  <si>
+    <t>uninfluential [,ᴧninflu'enʃəl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不产生影响的，没有影响的</t>
+    </r>
+  </si>
+  <si>
+    <t>【un否定+influential】</t>
+  </si>
+  <si>
+    <t>confluent ['kɔnfluənt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合流的，汇合的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13968</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>55887</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【con在一起+flu+流到一起--汇合+ent形容词后缀】</t>
+  </si>
+  <si>
+    <t>confluence ['kɔnfluəns]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合流，汇合，合流点，汇合处，汇流而成的河【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13968</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【conflu+ence名词后缀】</t>
+  </si>
+  <si>
+    <t>fluid ['flu(:)id]</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流动的，液体的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流体，液【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3809</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15320</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【flu流--流动+-id形容词或名词后缀】</t>
+  </si>
+  <si>
+    <t>fluidity [flu:'idəti]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流动性，流度【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19896</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【fluid+ity名词后缀】</t>
+  </si>
+  <si>
+    <t>fluid-filled ['fluːɪd-fɪld]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>充以流体的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40520</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词 filled填满 】</t>
+  </si>
+  <si>
+    <t>fluidly ['fluːɪdli]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流动地；不定地；液体地；流畅地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30687</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【fluid+ly副词后缀】</t>
+  </si>
+  <si>
+    <t>fluidize ['fluːɪdaɪz]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使流体化；使液化</t>
+    </r>
+  </si>
+  <si>
+    <t>【fluid+-ize动词后缀】</t>
+  </si>
+  <si>
+    <t>fluidized ['flu:idaizd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流态化的；沸腾的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>44333</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【fluidze+ed形容词后缀】</t>
+  </si>
+  <si>
+    <t>superfluity [,suːpə'fluːɪtɪ]</t>
+  </si>
+  <si>
+    <t>superfluity</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奢侈品；额外；过剩【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>45267</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【super-在前】</t>
+  </si>
+  <si>
+    <t>superfluid [,sʊpɚ'flʊɪd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超流体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超流体性的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>45722</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>49138</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【super-超+fluid】</t>
+  </si>
+  <si>
+    <t>superfluidity [suːpəfluː'ɪdɪtɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>低温</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超流动性；超流态【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>53693</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【superfluid+ity名词后缀】</t>
+  </si>
+  <si>
+    <t>superfluous [suː'pɜːflʊəs]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多余的；不必要的；奢侈的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>16897</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【super超过+flu流--过量流--多余的--浪费--奢侈+ous形容词后缀】</t>
+  </si>
+  <si>
+    <t>refluent ['refluənt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倒流的，退潮的</t>
+    </r>
+  </si>
+  <si>
+    <t>【re往回+flu流--往回流--倒流+ent形容词后缀】</t>
+  </si>
+  <si>
+    <t>refluence ['refluəns]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倒流，逆流，回流，退潮</t>
+    </r>
+  </si>
+  <si>
+    <t>【-ence名词后缀】</t>
+  </si>
+  <si>
+    <t>defluent ['defluənt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>向下流的</t>
+    </r>
+  </si>
+  <si>
+    <t>【de-向下+flu流--向下流+ent形容词后缀】</t>
+  </si>
+  <si>
+    <t>circumfluent [sə'kʌmfluənt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周流的，环流的</t>
+    </r>
+  </si>
+  <si>
+    <t>【-circum-=-circ-圆--环状+flu流--环流--ent形容词后缀】</t>
+  </si>
+  <si>
+    <t>effluent ['efluənt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流出的，发出的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14822</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【e??-向外--eff向外+flu流+ent形容词后缀】</t>
+  </si>
+  <si>
+    <t>interfluent [in'tə:fluənt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交流的，流在中间的</t>
+    </r>
+  </si>
+  <si>
+    <t>【inter-互相+flu流--互相流--交流+ent形容词后缀】</t>
+  </si>
+  <si>
+    <t>flux [flʌks]</t>
+  </si>
+  <si>
+    <t>flux</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流，流出，流动，变动【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8743</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10052</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-flux-词根直接表单词】</t>
+  </si>
+  <si>
+    <t>fluxion ['flʌkʃən]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流动，流出物，变动</t>
+    </r>
+  </si>
+  <si>
+    <t>【ion名词后缀】</t>
+  </si>
+  <si>
+    <t>fluxional ['flʌkʃənəl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流动的，变动的</t>
+    </r>
+  </si>
+  <si>
+    <t>【al形容词后缀】</t>
+  </si>
+  <si>
+    <t>afflux [,æflʌks]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流向，流入</t>
+    </r>
+  </si>
+  <si>
+    <t>【a??-aff--强调+flux流--流向】</t>
+  </si>
+  <si>
+    <t>efflux ['eflʌks]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流出；消逝；流出物；结束【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>53673</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【e??向外+flex流出--流走--消失】</t>
+  </si>
+  <si>
+    <t>reflux ['ri:flʌks]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回流；倒流；逆流【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>22386</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【re-往回+flex流--流回去--逆流】</t>
+  </si>
+  <si>
+    <t>influx ['inflʌks]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流入</t>
+    </r>
+  </si>
+  <si>
+    <t>【in-向内+flex】</t>
+  </si>
+  <si>
+    <t>flush [flʌʃ]</t>
+  </si>
+  <si>
+    <t>flush</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 激动，洋溢；面红；萌芽；旺盛；奔流vt. 使齐平；发红，使发亮；用水冲洗；使激动
+vi. 发红，脸红；奔涌；被冲洗adj. 大量的；齐平的；丰足的，洋溢的；挥霍的
+【词频6013，12853，16303，21592】</t>
+  </si>
+  <si>
+    <t>【拟声词，模仿冲洗奔流的声音，词义与flash出现重合，由流出引申词义水平，同高。同花顺来自拉丁语fluere,流动，流畅，词源同fluent
+flash vt. 使闪光；反射n. 闪光，闪现；一瞬间vi. 闪光，闪现；反射adj. 闪光的，火速的】</t>
+  </si>
+  <si>
+    <t>flush-mounted [flʌ-'maʊntɪd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>找平安装；嵌装【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>55396</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词】</t>
+  </si>
+  <si>
+    <t>flushed [flʌʃt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>激动的；心情愉快的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19451</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【flush+ed形容词后缀】</t>
+  </si>
+  <si>
+    <t>flushing ['flʌʃiŋ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>脸红</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使人脸红的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30849</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【flush+ing形容词或动名词后缀】</t>
+  </si>
+  <si>
+    <t>affluent ['æflʊənt]</t>
+  </si>
+  <si>
+    <t>affluent</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>富裕的；丰富的；流畅的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支流；富人【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7281</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【a??-强调 +flu流--大量的流--富有+ent形容词后缀】</t>
+  </si>
+  <si>
+    <t>affluence ['æflʊəns]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>富裕；丰富；流入；汇聚【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15288</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【affluent+ence名词后缀】</t>
+  </si>
+  <si>
+    <t>flue [fluː]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>烟道；暖气管；蓬松的东西；钩爪；渔网（等于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>flew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>24560</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【flu+e名词后缀】</t>
+  </si>
+  <si>
+    <t>flu-like [fluː-laɪk]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类似感冒的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>27333</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>flume [fluːm]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水道；笕槽；引水槽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用引水槽输送；用引水槽引【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30281</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【来自拉丁语fluere，流动，词源同fluent,后用于指工厂引水渠及游乐设施的水滑道等】</t>
+  </si>
+  <si>
+    <t>mellifluous [me'lɪflʊəs]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流畅的；如蜜般的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>33727</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-mel(l)-融化+i+flu+ous形容词后缀
+melt /melt/vi. 熔化，溶解；渐混vt. 使融化；使熔化；使软化；使感动n. 熔化；熔化物】</t>
+  </si>
+  <si>
+    <t>fluvial ['fluːvɪəl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>河流的；生在河中的；河流冲刷形成的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>45496</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【flu流动--冲刷+-vi-路--流动的路径+al形容词后缀】</t>
+  </si>
+  <si>
+    <t>influence-peddling ['ɪnflʊəns-'pedlɪŋ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>招权纳贿；以权谋私【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>51692</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【influence影响 + peddle叫卖，比喻用法，权力叫卖】</t>
+  </si>
+  <si>
+    <t>microfluidic ['maikrəuflʊ'ɪdɪk]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微流体【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>55671</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【micro-微小+fluid+ic名词后缀】</t>
+  </si>
+  <si>
+    <t>flue-cured ['flu:kjuəd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>熏制的；烤干的；烤烟的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>59437</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词cure adj. 治愈的；熟化的；熏制的】</t>
+  </si>
+  <si>
+    <t>fluoroscopy [flʊ(ː)ə'rɒskəpɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特医</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>荧光镜检查；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线透视检查【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>59298</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【fluor+o+scop镜+y名词后缀】</t>
   </si>
 </sst>
 </file>
@@ -38,12 +2283,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,10 +2297,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -66,8 +2383,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,13 +2400,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -97,15 +2408,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,46 +2437,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -172,9 +2444,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,19 +2459,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -212,7 +2480,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,7 +2504,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,31 +2582,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +2606,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,55 +2642,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,49 +2654,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,6 +2689,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -431,16 +2714,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,31 +2764,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,160 +2791,184 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1026,15 +3318,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="37" customWidth="1"/>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="5.375" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1052,6 +3348,874 @@
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="25.5" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="25.5" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" ht="81" spans="1:5">
+      <c r="A40" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" ht="25.5" spans="1:5">
+      <c r="A48" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" ht="40.5" spans="1:5">
+      <c r="A49" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" ht="27" spans="1:5">
+      <c r="A54" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
